--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1513330.004043909</v>
+        <v>1617509.638494981</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283212</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103611</v>
+        <v>75.45713216103881</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>109.7420895563779</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>130.4773138532933</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.68942351146712</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,10 +952,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>303.0256179619651</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>107.801581593452</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.46771191628075</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>258.8847668148992</v>
       </c>
       <c r="H8" t="n">
-        <v>160.0317554412396</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>108.6058961720992</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>15.72846594284005</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500074</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520995</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>70.04554881124324</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>104.1233804225859</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>21.69718571884994</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.05480806223599</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
-        <v>140.7215037338438</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704672946</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417083</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534025</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>130.7323655469541</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>207.0967504439648</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
-        <v>65.99480013030511</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>93.05052491174577</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>104.4262124629293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186435</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>102.3739644559489</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>883.4114536130577</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1513.842048484845</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1513.842048484845</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>1285.852497586827</v>
+        <v>748.1146664810473</v>
       </c>
       <c r="Y4" t="n">
-        <v>1065.059918443297</v>
+        <v>527.3220873375171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,37 +4649,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>591.781102412113</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>422.8449194842061</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>272.7282800718704</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.59460854119</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1098.605057643173</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>591.781102412113</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2209.232076102166</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1840.269559161754</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="D8" t="n">
-        <v>1482.003860555004</v>
+        <v>1464.366537431293</v>
       </c>
       <c r="E8" t="n">
-        <v>1096.21560795676</v>
+        <v>1078.578284833049</v>
       </c>
       <c r="F8" t="n">
-        <v>685.2297031671521</v>
+        <v>667.5923800434416</v>
       </c>
       <c r="G8" t="n">
-        <v>270.1572530121486</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4804,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4826,25 +4828,25 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339058</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077978</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
         <v>2209.232076102166</v>
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5809963705863</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6448134426794</v>
+        <v>640.2517046783053</v>
       </c>
       <c r="D10" t="n">
-        <v>474.5281740303436</v>
+        <v>490.1350652659695</v>
       </c>
       <c r="E10" t="n">
-        <v>326.6150804479505</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>179.7251329500401</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>179.7251329500401</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.229461200826</v>
+        <v>809.1878876062121</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5023,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156759</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314346</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378165</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172279</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135318</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237301</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>853.5941094450255</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>703.4774700326898</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>555.5643764502967</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,7 +5755,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978459</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>422.7903292978459</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>422.7903292978459</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192579</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021778</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756784</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.34948699607</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.972636491138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.5813165460164</v>
+        <v>803.2707707770301</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>634.3345878491232</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>634.3345878491232</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>486.4214942667301</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>339.5315467688197</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.011911417804</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="X28" t="n">
-        <v>957.0223605197863</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2297813762561</v>
+        <v>984.9192356072698</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,37 +6472,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>2815.53084523714</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>2646.594662309233</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>2646.594662309233</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>2646.594662309233</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309233</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024113</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866311</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866311</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.02030972914</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389148</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098133</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671692</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650994</v>
       </c>
       <c r="S31" t="n">
-        <v>4481.644515586507</v>
+        <v>4440.932614305898</v>
       </c>
       <c r="T31" t="n">
-        <v>4262.043050609448</v>
+        <v>4221.331149328839</v>
       </c>
       <c r="U31" t="n">
-        <v>3972.967823953646</v>
+        <v>3990.063098351774</v>
       </c>
       <c r="V31" t="n">
-        <v>3972.967823953646</v>
+        <v>3735.378610145887</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>3445.961440108927</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>3217.971889210909</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>2997.179310067379</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558404</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630497</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218161</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570806</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279791</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580249</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832651</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.286391947399</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.624977674364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192895</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L42" t="n">
-        <v>2257.062161108198</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,7 +7587,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7597,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2341.482060890433</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2052.406834234631</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.700204330166</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.624977674364</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891701</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.37549921168801</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>61.40075786968299</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>143.8269525734189</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.32043864788569</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194953</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844824213</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>50.29392045469052</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.0314858713395</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>125.534128440349</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>112.979237864359</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.89260457060067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>115.0314858713394</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892775</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892775</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892774</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892776</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972769</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.540033842204138e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996405.3227254075</v>
+        <v>-996405.3227254078</v>
       </c>
       <c r="C6" t="n">
-        <v>332339.4230021848</v>
+        <v>332339.423002185</v>
       </c>
       <c r="D6" t="n">
         <v>332339.4230021847</v>
       </c>
       <c r="E6" t="n">
-        <v>83893.54609038652</v>
+        <v>83893.54609038671</v>
       </c>
       <c r="F6" t="n">
+        <v>409306.0078977419</v>
+      </c>
+      <c r="G6" t="n">
         <v>409306.0078977418</v>
       </c>
-      <c r="G6" t="n">
-        <v>409306.0078977422</v>
-      </c>
       <c r="H6" t="n">
-        <v>409306.0078977419</v>
+        <v>409306.0078977418</v>
       </c>
       <c r="I6" t="n">
         <v>409306.0078977418</v>
       </c>
       <c r="J6" t="n">
-        <v>191774.8055004644</v>
+        <v>191774.8055004649</v>
       </c>
       <c r="K6" t="n">
-        <v>409306.0078977418</v>
+        <v>409306.0078977417</v>
       </c>
       <c r="L6" t="n">
+        <v>409306.0078977416</v>
+      </c>
+      <c r="M6" t="n">
+        <v>324250.9799622299</v>
+      </c>
+      <c r="N6" t="n">
         <v>409306.0078977419</v>
       </c>
-      <c r="M6" t="n">
-        <v>324250.97996223</v>
-      </c>
-      <c r="N6" t="n">
-        <v>409306.0078977417</v>
-      </c>
       <c r="O6" t="n">
-        <v>409306.0078977417</v>
+        <v>409306.0078977419</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977417</v>
+        <v>409306.0078977412</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26759,22 +26761,22 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024445</v>
+        <v>307.2767095024417</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>57.50473154224989</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>95.23234153574381</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>363.0444181520135</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>83.21232069408848</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>38.63238105311721</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>129.1169414358141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>152.0369588385543</v>
       </c>
       <c r="H8" t="n">
-        <v>134.5760089460809</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>37.82806647446999</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>129.0265489714807</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28551,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-3.232838081714498e-12</v>
       </c>
     </row>
     <row r="17">
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29691,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-6.060798170039696e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29758,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29940,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.055771766308074e-11</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>268.1779244693582</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,13 +32320,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32473,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O27" t="n">
-        <v>333.9544784328825</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270686</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N30" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L36" t="n">
-        <v>431.9220107744075</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817604</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067262</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338203</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145579</v>
       </c>
       <c r="O45" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>130.3364854949993</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O27" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>110.190557141047</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294576</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329898967</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L36" t="n">
-        <v>293.3676309945333</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367799</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236320278</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394616</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>283.5755383312245</v>
       </c>
       <c r="O45" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1617509.638494981</v>
+        <v>1613497.028480987</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283212</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103881</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145761</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4773138532933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>19.88471653142353</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>216.1947006939465</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>303.0256179619651</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>107.801581593452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>17.84935903930831</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222602</v>
       </c>
       <c r="G8" t="n">
-        <v>258.8847668148992</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>108.6058961720992</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.7228684476123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>39.96816871822059</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>47.84205650382022</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500074</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520995</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.2042067722786</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>246.814117789638</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>21.69718571884994</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012174</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704672946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534025</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>130.7323655469541</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>32.27552175740432</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.05052491174577</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>253.2918698186435</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.3220873375171</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>527.3220873375171</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>527.3220873375171</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4524,16 +4524,16 @@
         <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>748.1146664810473</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.3220873375171</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>741.9599508971592</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>591.781102412113</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>422.8449194842061</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>272.7282800718704</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1909.264892493232</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1909.264892493232</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1620.162025618876</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X7" t="n">
-        <v>812.5736815556431</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y7" t="n">
-        <v>591.781102412113</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1822.632236038044</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1464.366537431293</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>1078.578284833049</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F8" t="n">
-        <v>667.5923800434416</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>809.1878876062121</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>640.2517046783053</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>490.1350652659695</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062121</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.1878876062121</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,49 +5023,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5439,49 +5439,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378165</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172279</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135318</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237301</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192579</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756264</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756264</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021778</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756784</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.34948699607</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.972636491138</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770301</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491232</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>634.3345878491232</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>486.4214942667301</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>339.5315467688197</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487565</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510506</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854704</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648817</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648817</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.7118147508</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072698</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2815.53084523714</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309233</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309233</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309233</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309233</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024113</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866311</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866311</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305898</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328839</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.063098351774</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.378610145887</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3445.961440108927</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3217.971889210909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>2997.179310067379</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,34 +6764,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>241.7297566303649</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797182</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797182</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797182</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570806</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279791</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885335</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580249</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832651</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7012443408905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2314.910189088387</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2095.308724111328</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1806.233497455525</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1551.549009249638</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.131839212678</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1034.14228831466</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>813.3497091711303</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.35942226766</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.7734165143921</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891701</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.3804465798161516</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>143.8269525734189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.00954930701784</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194953</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844824213</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>50.29392045469052</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>148.7507642442403</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.534128440349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>32.89260457060067</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901280.0268892775</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901280.0268892775</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901280.0268892774</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901280.0268892776</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972769</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996405.3227254078</v>
+        <v>-996405.3227254081</v>
       </c>
       <c r="C6" t="n">
-        <v>332339.423002185</v>
+        <v>332339.4230021848</v>
       </c>
       <c r="D6" t="n">
-        <v>332339.4230021847</v>
+        <v>332339.4230021848</v>
       </c>
       <c r="E6" t="n">
-        <v>83893.54609038671</v>
+        <v>83546.16683602924</v>
       </c>
       <c r="F6" t="n">
-        <v>409306.0078977419</v>
+        <v>408958.6286433849</v>
       </c>
       <c r="G6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433846</v>
       </c>
       <c r="H6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433846</v>
       </c>
       <c r="I6" t="n">
-        <v>409306.0078977418</v>
+        <v>408958.6286433846</v>
       </c>
       <c r="J6" t="n">
-        <v>191774.8055004649</v>
+        <v>191427.4262461073</v>
       </c>
       <c r="K6" t="n">
-        <v>409306.0078977417</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="L6" t="n">
-        <v>409306.0078977416</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="M6" t="n">
-        <v>324250.9799622299</v>
+        <v>323903.6007078728</v>
       </c>
       <c r="N6" t="n">
-        <v>409306.0078977419</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="O6" t="n">
-        <v>409306.0078977419</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977412</v>
+        <v>408958.628643385</v>
       </c>
     </row>
   </sheetData>
@@ -26761,22 +26761,22 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024417</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111.4435131414775</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>95.23234153574381</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>198.6999368206713</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>190.6813450477649</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>83.21232069408848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>38.63238105311721</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>171.9196662921336</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194513</v>
       </c>
       <c r="G8" t="n">
-        <v>152.0369588385543</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>37.82806647446999</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>118.0986533615251</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-3.232838081714498e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-6.060798170039696e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.055771766308074e-11</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.080820443724</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270686</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817604</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>414.9172504145579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992795</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.190557141047</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294576</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329898967</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367799</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>283.5755383312245</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613497.028480987</v>
+        <v>1615257.558783772</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.7760087079218</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>91.47612611658074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.88471653142353</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>283.6826708844488</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>216.1947006939465</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>17.84935903930831</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.2930916328073</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222602</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.67037196991681</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.96816871822059</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.9183958257884</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>47.84205650382022</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.2042067722786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>246.814117789638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.36569740310382</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>100.5858322992705</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>94.91529601901473</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>32.27552175740432</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.11626575513</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>29.959001240238</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4330,10 +4330,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4366,16 +4366,16 @@
         <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2678.274518176916</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>474.5281740303432</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>326.61508044795</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>326.61508044795</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>158.912243822669</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4533,7 +4533,7 @@
         <v>1196.022040344356</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495403</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495403</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>741.9599508971592</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4612,7 +4612,7 @@
         <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4640,13 +4640,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1909.264892493232</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1909.264892493232</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1620.162025618876</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>1365.477537412989</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1076.060367376028</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>848.0708164780106</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,46 +5032,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978464</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694706</v>
@@ -5302,28 +5302,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273905</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5904,10 +5904,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
@@ -5998,19 +5998,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2395.078540748843</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2395.078540748843</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T28" t="n">
-        <v>2395.078540748843</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6700,22 +6700,22 @@
         <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>271.7774027829014</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.955258982919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550122</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426764</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602833</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2416.701466165879</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2233.846631820783</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2014.245166843724</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
   </sheetData>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>106.4657939283486</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>32.79125956324873</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.7734165143921</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3804465798161516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.00954930701784</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>80.44045370237413</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>45.37941682720913</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>148.7507642442403</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.30478226780122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.41624546988369</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892776</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892775</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
-      </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>524645.2897985037</v>
       </c>
-      <c r="N2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.869591415015748e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.641531071072677e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996405.3227254081</v>
+        <v>-996405.322725408</v>
       </c>
       <c r="C6" t="n">
-        <v>332339.4230021848</v>
+        <v>332339.4230021847</v>
       </c>
       <c r="D6" t="n">
         <v>332339.4230021848</v>
       </c>
       <c r="E6" t="n">
-        <v>83546.16683602924</v>
+        <v>83858.80816495117</v>
       </c>
       <c r="F6" t="n">
-        <v>408958.6286433849</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="G6" t="n">
-        <v>408958.6286433846</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="H6" t="n">
-        <v>408958.6286433846</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="I6" t="n">
-        <v>408958.6286433846</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="J6" t="n">
-        <v>191427.4262461073</v>
+        <v>191740.0675750284</v>
       </c>
       <c r="K6" t="n">
-        <v>408958.6286433847</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="L6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.269972306</v>
       </c>
       <c r="M6" t="n">
-        <v>323903.6007078728</v>
+        <v>324216.2420367945</v>
       </c>
       <c r="N6" t="n">
-        <v>408958.6286433847</v>
+        <v>409271.269972306</v>
       </c>
       <c r="O6" t="n">
-        <v>408958.6286433847</v>
+        <v>409271.2699723057</v>
       </c>
       <c r="P6" t="n">
-        <v>408958.628643385</v>
+        <v>409271.2699723063</v>
       </c>
     </row>
   </sheetData>
@@ -26795,22 +26795,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>52.95783295555873</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.4435131414775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.27888879774004</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.6999368206713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>71.00037073623412</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>190.6813450477649</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>171.9196662921336</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>61.76674224145199</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.6372784394545</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194513</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>118.0986533615251</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593852</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>199.009739079511</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
